--- a/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,48%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-42,04%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-43,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,93</t>
+          <t>-29,78; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,3</t>
+          <t>0,0; 27,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,2</t>
+          <t>-42,39; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 292,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-89,9; 106,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-35,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>-42,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,34%</t>
+          <t>-43,55%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,71</t>
+          <t>-4,64; 1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,55</t>
+          <t>-7,27; 2,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,35</t>
+          <t>-2,89; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,12</t>
+          <t>-4,87; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 292,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,9; 106,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>365,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 0,0</t>
+          <t>-2,19; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>-3,23; 4,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 0,0</t>
+          <t>-0,23; 9,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>365,63%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,34%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,5</t>
+          <t>0,91; 8,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,61</t>
+          <t>-4,41; 4,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,35</t>
+          <t>-1,45; 2,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>-6,23; 3,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 0,0</t>
+          <t>-32,71; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,21</t>
+          <t>0,0; 27,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 0,0</t>
+          <t>-42,79; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 8,53</t>
+          <t>-4,86; 7,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 5,5</t>
+          <t>-8,65; 5,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 0,0</t>
+          <t>-10,06; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,9</t>
+          <t>0,0; 12,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,93</t>
+          <t>-5,14; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,3</t>
+          <t>-6,57; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,2</t>
+          <t>-2,87; 1,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,03</t>
+          <t>-4,63; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 292,44</t>
+          <t>-100,0; 258,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,9; 106,81</t>
+          <t>-87,16; 188,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,5</t>
+          <t>-2,22; 3,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,61</t>
+          <t>-2,76; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,35</t>
+          <t>-0,2; 9,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,55</t>
+          <t>-3,95; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,35</t>
+          <t>-1,45; 2,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,12</t>
+          <t>-6,33; 3,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,44</t>
+          <t>-1,49; 2,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,94</t>
+          <t>-2,88; 2,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,49</t>
+          <t>-1,92; 1,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,68</t>
+          <t>-1,82; 1,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 238,28</t>
+          <t>-59,88; 237,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 83,02</t>
+          <t>-60,77; 80,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,16; 184,35</t>
+          <t>-72,35; 181,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 318,48</t>
+          <t>-87,53; 454,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 0,0</t>
+          <t>-36,53; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,93</t>
+          <t>0,0; 33,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 0,0</t>
+          <t>-36,67; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,33</t>
+          <t>-4,21; 8,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 5,76</t>
+          <t>-8,07; 5,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,0</t>
+          <t>-11,52; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,85</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,1</t>
+          <t>-5,16; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,83</t>
+          <t>-6,66; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,81</t>
+          <t>-2,92; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,32</t>
+          <t>-4,76; 3,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 258,81</t>
+          <t>-100,0; 309,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,16; 188,42</t>
+          <t>-89,44; 118,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,47</t>
+          <t>-2,18; 3,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,7</t>
+          <t>-2,71; 4,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 9,24</t>
+          <t>-0,25; 8,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,71</t>
+          <t>0,91; 8,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,57</t>
+          <t>-4,4; 5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,32</t>
+          <t>-1,43; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,48</t>
+          <t>-6,13; 2,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,65; 512,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,19</t>
+          <t>-1,38; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,09</t>
+          <t>-2,87; 2,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,39</t>
+          <t>-1,8; 1,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,92</t>
+          <t>-2,01; 1,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 237,61</t>
+          <t>-56,04; 249,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 80,56</t>
+          <t>-59,99; 86,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 181,19</t>
+          <t>-70,71; 205,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,53; 454,47</t>
+          <t>-89,78; 448,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-25,74%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 0,0</t>
+          <t>-5,7; 5,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,99</t>
+          <t>-5,11; 6,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 0,0</t>
+          <t>-12,43; -1,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 508,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>-35,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,0%</t>
+          <t>-42,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-39,93%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 8,4</t>
+          <t>-4,64; 1,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 5,68</t>
+          <t>-7,27; 2,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 0,0</t>
+          <t>-2,89; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>-4,72; 3,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 292,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,9; 106,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,48%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,04%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>365,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,55%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,28</t>
+          <t>-2,19; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,31</t>
+          <t>-3,23; 4,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,33</t>
+          <t>-0,23; 9,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,01</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 309,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 118,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>365,63%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,81%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,45</t>
+          <t>0,91; 8,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,65</t>
+          <t>-4,41; 4,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,95</t>
+          <t>-1,45; 2,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>-5,68; 4,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>-12,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>-8,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-26,34%</t>
+          <t>-4,03%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,73</t>
+          <t>-1,57; 2,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,46</t>
+          <t>-2,83; 1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,39</t>
+          <t>-1,87; 1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,92</t>
+          <t>-2,09; 1,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,28; 238,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-84,65; 512,53</t>
+          <t>-58,81; 83,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,16; 184,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 318,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-12,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-8,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-3,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 2,22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 2,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 1,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 1,75</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-56,04; 249,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-59,99; 86,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-70,71; 205,76</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-89,78; 448,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
